--- a/pred_ohlcv/54_23/2019-10-14 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-14 ZRX ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1220,7 +1220,7 @@
         <v>365</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -1243,7 +1243,7 @@
         <v>364</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -1266,7 +1266,7 @@
         <v>366</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -1289,7 +1289,7 @@
         <v>366</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -1312,7 +1312,7 @@
         <v>364</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -1335,7 +1335,7 @@
         <v>365</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -1381,7 +1381,7 @@
         <v>366</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -1404,7 +1404,7 @@
         <v>365</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -1427,7 +1427,7 @@
         <v>365</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -1450,7 +1450,7 @@
         <v>365</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -1473,7 +1473,7 @@
         <v>366</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -1496,7 +1496,7 @@
         <v>367</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -1519,7 +1519,7 @@
         <v>368</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -1542,7 +1542,7 @@
         <v>368</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -1565,7 +1565,7 @@
         <v>368</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -1611,7 +1611,7 @@
         <v>373</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -1634,7 +1634,7 @@
         <v>375</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -1657,7 +1657,7 @@
         <v>376</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -1680,7 +1680,7 @@
         <v>378</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -1703,7 +1703,7 @@
         <v>376</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -1726,7 +1726,7 @@
         <v>377</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -1749,7 +1749,7 @@
         <v>376</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -1772,7 +1772,7 @@
         <v>373</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -1795,7 +1795,7 @@
         <v>372</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -1818,7 +1818,7 @@
         <v>373</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -1841,7 +1841,7 @@
         <v>370</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -1864,7 +1864,7 @@
         <v>368</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2462,7 +2462,7 @@
         <v>362</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -2485,7 +2485,7 @@
         <v>361</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -2508,7 +2508,7 @@
         <v>361</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -2692,7 +2692,7 @@
         <v>364</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -2715,7 +2715,7 @@
         <v>365</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -2738,7 +2738,7 @@
         <v>364</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -2761,7 +2761,7 @@
         <v>364</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -2784,7 +2784,7 @@
         <v>363</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -2807,7 +2807,7 @@
         <v>364</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -3543,7 +3543,7 @@
         <v>384</v>
       </c>
       <c r="F138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -3566,7 +3566,7 @@
         <v>381</v>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -3589,7 +3589,7 @@
         <v>383</v>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -3612,7 +3612,7 @@
         <v>385</v>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -3635,7 +3635,7 @@
         <v>385</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -3688,6 +3688,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>